--- a/biology/Botanique/Casseille/Casseille.xlsx
+++ b/biology/Botanique/Casseille/Casseille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La casseille ou caseille (contraction de cass-is et gros-eille, Ribes × nidigrolaria) est le fruit du casseillier ou caseillier, un hybride entre le cassissier (ou groseillier noir) et le groseillier à maquereau : Ribes nigrum × Ribes uva-crispa.
 L'arbuste ne possède pas d'épines et produit de gros fruits noirs lisses ayant une saveur acide avec un parfum léger. Ses fruits peuvent être utilisés pour la confection de confitures et sorbets.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La plante arbustive est un hybride tétraploïde complexe entre plusieurs espèces du genre Ribes.
 Il en existe deux espèces :
@@ -546,10 +560,12 @@
           <t>Maladies et prédateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles du casseillier peuvent être attaquées par des larves de tenthrèdes ou « fausses-chenilles », notamment celles de l'espèce Nematus ribesii (tenthrède du groseillier)[1]. 
-Un traitement à base de pyrèthre, de savon noir ou d’émulsion d’huile végétale à 1 % est efficace contre ces tenthrèdes, au moins sur les larves jeunes[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles du casseillier peuvent être attaquées par des larves de tenthrèdes ou « fausses-chenilles », notamment celles de l'espèce Nematus ribesii (tenthrède du groseillier). 
+Un traitement à base de pyrèthre, de savon noir ou d’émulsion d’huile végétale à 1 % est efficace contre ces tenthrèdes, au moins sur les larves jeunes. 
 </t>
         </is>
       </c>
